--- a/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350"/>
+    <workbookView windowWidth="27765" windowHeight="15450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>TalentType</t>
-  </si>
-  <si>
     <t>ShowName</t>
   </si>
   <si>
     <t>Desc</t>
+  </si>
+  <si>
+    <t>EffectData</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
+    <t>UpLevel</t>
+  </si>
+  <si>
+    <t>AfterUpID</t>
   </si>
   <si>
     <t>TALENT1</t>
@@ -113,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,102 +138,119 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,7 +273,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,30 +291,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,19 +303,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,163 +441,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,15 +494,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,6 +513,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -520,6 +547,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,8 +578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,177 +594,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,18 +1133,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1145,117 +1159,105 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19455" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -90,24 +90,7 @@
     <t>升级需要的等级</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>升级后的新技能I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>D</t>
-    </r>
+    <t>升级后的新技能ID</t>
   </si>
   <si>
     <t>TALENT1</t>
@@ -187,12 +170,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -200,6 +183,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -214,6 +204,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -221,32 +234,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,13 +312,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,78 +325,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,25 +368,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,31 +494,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,120 +542,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -566,20 +556,92 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,11 +678,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,8 +712,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,178 +748,184 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -896,8 +982,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -906,10 +991,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
+      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1257,7 +1339,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="$A1:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1267,23 +1349,23 @@
     <col min="8" max="8" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -1323,25 +1405,25 @@
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6" t="b">
+      <c r="B3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1349,25 +1431,25 @@
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6" t="b">
+      <c r="B4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1375,25 +1457,25 @@
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6" t="b">
+      <c r="B5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1401,51 +1483,51 @@
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="b">
+      <c r="B6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:8">
-      <c r="A7" s="6" t="s">
+    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:8">
+      <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="10" t="s">
         <v>21</v>
       </c>
     </row>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19455" windowHeight="9990"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>Id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Cache</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
   <si>
     <t>名字字符串索引</t>
@@ -170,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -193,20 +196,141 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,127 +343,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -362,31 +365,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,151 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,21 +645,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -676,20 +664,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,26 +716,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,148 +751,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,6 +906,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -916,9 +922,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -982,7 +985,7 @@
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -991,7 +994,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="none"/>
       </fill>
@@ -1336,10 +1338,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A1:$XFD7"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1350,210 +1352,222 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:8">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8" t="b">
+      <c r="B3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:8">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="b">
+      <c r="B4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:8">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8" t="b">
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:8">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8" t="b">
+      <c r="B6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="27.75" spans="1:8">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="3" customFormat="1" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="27.75" spans="1:8">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="H8" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1561,13 +1575,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1575,13 +1589,13 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1589,13 +1603,13 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1603,13 +1617,13 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1617,13 +1631,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1631,22 +1645,36 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="G15">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 D6 E6:H6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 D6 E6:H6 B7 C7:H7">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -12,20 +17,28 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Skill" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Skill" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Excel_Ini\Skill.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -171,14 +184,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -192,159 +199,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,194 +219,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -648,251 +318,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -931,61 +359,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -999,12 +379,17 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1336,22 +721,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1377,7 +762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -1403,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -1429,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1455,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -1481,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -1507,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="27.75" spans="1:8">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1559,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1573,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1587,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1601,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1615,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1629,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1643,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -1657,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1678,7 +1063,7 @@
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
+++ b/_Out/Server/NFDataCfg/Excel_Ini/Talent.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>Id</t>
   </si>
@@ -179,13 +179,17 @@
   </si>
   <si>
     <t>Talent8</t>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -196,6 +200,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -360,7 +369,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -388,6 +397,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -722,21 +734,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -762,7 +774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -788,7 +800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
@@ -814,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -840,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
@@ -866,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -892,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -918,148 +930,175 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>28</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>46</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6 A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:C6 D6 E6:H6 B7 C7:H7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H8">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
